--- a/Documentation/Working_Documents/Raindrop_Switch_BOM.xlsx
+++ b/Documentation/Working_Documents/Raindrop_Switch_BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bradw\GitHub\Raindrop-Switch\Documentation\Working_Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://neilsquiresoc-my.sharepoint.com/personal/stephand_neilsquire_ca/Documents/Documents/GitHub/Raindrop-Switch/Documentation/Working_Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6992D7EE-79D1-497A-9ECF-3CF224EE0DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{6992D7EE-79D1-497A-9ECF-3CF224EE0DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDC99D4C-D7B6-4746-86D7-4BEB54DAE9E3}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="75">
   <si>
     <t>Total filament (g)</t>
   </si>
@@ -113,9 +113,6 @@
     <t>Total Mass</t>
   </si>
   <si>
-    <t>Custom PCB</t>
-  </si>
-  <si>
     <t>Unit Cost</t>
   </si>
   <si>
@@ -131,9 +128,6 @@
     <t>Alternatives</t>
   </si>
   <si>
-    <t>Shipping</t>
-  </si>
-  <si>
     <t>Tool</t>
   </si>
   <si>
@@ -201,6 +195,73 @@
   </si>
   <si>
     <t>Omron Electronics</t>
+  </si>
+  <si>
+    <t>Tactile switch for controlling devices</t>
+  </si>
+  <si>
+    <t>Omron</t>
+  </si>
+  <si>
+    <t>Mouser</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/Omron-Electronics/B3F-5050?qs=dOLq8QE0Pqqk%2FO9x2OpTQw%3D%3D</t>
+  </si>
+  <si>
+    <t>Cable to connect to assistive devices</t>
+  </si>
+  <si>
+    <t>My Cable Mart</t>
+  </si>
+  <si>
+    <t>https://www.mycablemart.com/store/cart.php?m=product_detail&amp;p=5537</t>
+  </si>
+  <si>
+    <t>3.5 mm stereo cable (6 foot length)</t>
+  </si>
+  <si>
+    <t>Cable to connect to assistive devices. 
+Note: You will need to do extra work to ensure the tip, ring, and sleeve are connected properly.</t>
+  </si>
+  <si>
+    <t>Prime Cables</t>
+  </si>
+  <si>
+    <t>https://www.primecables.ca/p-391548-cab-aud-220-06-6ft-35mm-stereo-male-to-male-cable-riser-rated-cl2ft4-black?from_pla=google&amp;sku=417835&amp;gad_source=1&amp;gclid=EAIaIQobChMI3NnAxNP5hgMVJDbUAR08_whLEAQYASABEgKGY_D_BwE#sku417835</t>
+  </si>
+  <si>
+    <t>T01</t>
+  </si>
+  <si>
+    <t>T02</t>
+  </si>
+  <si>
+    <t>T03</t>
+  </si>
+  <si>
+    <t>T04</t>
+  </si>
+  <si>
+    <t>T05</t>
+  </si>
+  <si>
+    <t>T06</t>
+  </si>
+  <si>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>A04</t>
+  </si>
+  <si>
+    <t>Press button</t>
   </si>
 </sst>
 </file>
@@ -211,7 +272,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,8 +320,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,18 +337,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
@@ -527,7 +582,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -535,15 +590,14 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -551,92 +605,85 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6"/>
-    <xf numFmtId="44" fontId="1" fillId="7" borderId="5" xfId="6" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="44" fontId="1" fillId="5" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="12" borderId="1" xfId="11" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="11" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="11" borderId="2" xfId="10" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="6" borderId="2" xfId="5" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="14" borderId="1" xfId="13" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="13" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="13" borderId="2" xfId="12" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="10" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="8" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="12" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="10" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="3" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="4" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="10" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="11" borderId="6" xfId="10" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="9" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="5" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="6" borderId="6" xfId="5" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="2" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="12" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="13" borderId="6" xfId="12" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="10" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="11" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="9" xfId="13" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="10" xfId="13" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="14" borderId="10" xfId="13" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="11" xfId="13" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="12" xfId="13" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="8" xfId="12" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="13" borderId="8" xfId="12" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="11" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="10" xfId="11" applyBorder="1"/>
     <xf numFmtId="44" fontId="1" fillId="12" borderId="10" xfId="11" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="11" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="12" xfId="11" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="10" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="8" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="8" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="8" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="13" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="11" borderId="8" xfId="10" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="9" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="9" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="10" borderId="10" xfId="9" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="9" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="12" xfId="9" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="11" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="8" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="9" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="6" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="9" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="7" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="10" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="8" borderId="5" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="4" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="7" borderId="1" xfId="6" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="11" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="8" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="8" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="8" xfId="12" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="15" borderId="8" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="2" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="9" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="8" xfId="10" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="13" borderId="8" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="44" fontId="1" fillId="6" borderId="6" xfId="12" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="6" borderId="2" xfId="12" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="14">
-    <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
-    <cellStyle name="20% - Accent2" xfId="5" builtinId="34"/>
-    <cellStyle name="20% - Accent3" xfId="7" builtinId="38"/>
-    <cellStyle name="20% - Accent4" xfId="10" builtinId="42"/>
-    <cellStyle name="20% - Accent6" xfId="12" builtinId="50"/>
-    <cellStyle name="40% - Accent1" xfId="3" builtinId="31"/>
-    <cellStyle name="40% - Accent2" xfId="6" builtinId="35"/>
-    <cellStyle name="40% - Accent3" xfId="8" builtinId="39"/>
-    <cellStyle name="40% - Accent4" xfId="11" builtinId="43"/>
-    <cellStyle name="40% - Accent6" xfId="13" builtinId="51"/>
-    <cellStyle name="60% - Accent1" xfId="4" builtinId="32"/>
+  <cellStyles count="13">
+    <cellStyle name="20% - Accent2" xfId="3" builtinId="34"/>
+    <cellStyle name="20% - Accent3" xfId="5" builtinId="38"/>
+    <cellStyle name="20% - Accent4" xfId="8" builtinId="42"/>
+    <cellStyle name="20% - Accent6" xfId="10" builtinId="50"/>
+    <cellStyle name="40% - Accent2" xfId="4" builtinId="35"/>
+    <cellStyle name="40% - Accent3" xfId="6" builtinId="39"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="40% - Accent6" xfId="11" builtinId="51"/>
+    <cellStyle name="60% - Accent1" xfId="2" builtinId="32"/>
     <cellStyle name="Accent2" xfId="1" builtinId="33"/>
-    <cellStyle name="Accent4" xfId="9" builtinId="41"/>
+    <cellStyle name="Accent4" xfId="7" builtinId="41"/>
+    <cellStyle name="Currency" xfId="12" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -915,101 +962,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EE8AD1-7DB5-46E4-9BCF-A08DFBDA7B00}">
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.42578125" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.44140625" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" customWidth="1"/>
+    <col min="14" max="14" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="35.25" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:14" ht="36" x14ac:dyDescent="0.65">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="73" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B1" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="72">
+      <c r="B3" s="61">
         <v>45468</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I4" s="63" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="57"/>
-      <c r="K4" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="59" t="s">
-        <v>29</v>
+      <c r="J4" s="46"/>
+      <c r="K4" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="48" t="s">
+        <v>28</v>
       </c>
       <c r="M4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="I5" s="64">
-        <f>SUM(H21:H25)</f>
+      <c r="I5" s="53">
+        <f>SUM(H16:H20)</f>
         <v>6</v>
       </c>
-      <c r="J5" s="60"/>
-      <c r="K5" s="61">
-        <f>K6+K14+K19</f>
+      <c r="J5" s="49"/>
+      <c r="K5" s="50">
+        <f>K6+K14</f>
         <v>3.5249999999999999</v>
       </c>
-      <c r="L5" s="62">
-        <f>L6+L14+L19</f>
+      <c r="L5" s="51">
+        <f>L6+L14</f>
         <v>6.0100000000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="42" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="6"/>
@@ -1020,18 +1067,18 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="65">
+      <c r="K6" s="54">
         <f>SUM(K8:K13)</f>
         <v>3.375</v>
       </c>
       <c r="L6" s="7">
-        <f>SUM(L8:L19)</f>
+        <f>SUM(L8:L14)</f>
         <v>5.86</v>
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="B7" s="8" t="s">
         <v>2</v>
@@ -1062,76 +1109,80 @@
         <v>15</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M7" s="8"/>
       <c r="N7" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="21">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="18">
         <v>1</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="18">
         <v>1</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="18">
         <f t="shared" ref="I8:I12" si="0">IF(G8&gt;0,CEILING(G8/H8,1),0)</f>
         <v>1</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="19">
         <v>1.04</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K8" s="19">
         <f t="shared" ref="K8:K12" si="1">IF(G8&gt;0,J8/H8*G8,0)</f>
         <v>1.04</v>
       </c>
-      <c r="L8" s="22">
+      <c r="L8" s="19">
         <f t="shared" ref="L8:L12" si="2">I8*J8</f>
         <v>1.04</v>
       </c>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21" t="s">
+      <c r="M8" s="18"/>
+      <c r="N8" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="16">
+      <c r="G9" s="14">
         <v>1</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="14">
         <v>2</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1146,21 +1197,21 @@
         <f t="shared" si="2"/>
         <v>4.67</v>
       </c>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16">
+      <c r="M9" s="14"/>
+      <c r="N9" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1175,19 +1226,19 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16">
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1202,19 +1253,19 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16">
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1229,819 +1280,770 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-    </row>
-    <row r="13" spans="1:14" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
-      <c r="B14" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+    </row>
+    <row r="13" spans="1:14" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+    </row>
+    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="26"/>
+      <c r="B14" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="11">
+        <f>SUM(I16:I22)</f>
+        <v>6</v>
+      </c>
+      <c r="J14" s="28"/>
       <c r="K14" s="10">
-        <f>SUM(K16:K18)</f>
-        <v>0</v>
+        <f>SUM(K16:K22)</f>
+        <v>0.15000000000000002</v>
       </c>
       <c r="L14" s="10">
-        <f>SUM(L16:L18)</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="32"/>
-      <c r="N14" s="33"/>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="34"/>
+        <f>SUM(L16:L22)</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="M14" s="27"/>
+      <c r="N14" s="29"/>
+    </row>
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="30"/>
       <c r="B15" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="11"/>
+      <c r="D15" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="E15" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>14</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K15" s="11" t="s">
         <v>15</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M15" s="11"/>
       <c r="N15" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23">
-        <v>0</v>
-      </c>
-      <c r="H16" s="23">
-        <v>5</v>
-      </c>
-      <c r="I16" s="23">
-        <f t="shared" ref="I16:I17" si="3">IF(G16&gt;0,CEILING(G16/H16,1),0)</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="24">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="20">
+        <v>1</v>
+      </c>
+      <c r="H16" s="20">
+        <v>1</v>
+      </c>
+      <c r="I16" s="20">
+        <f>G16*H16</f>
+        <v>1</v>
+      </c>
+      <c r="J16" s="21">
+        <v>25</v>
+      </c>
+      <c r="K16" s="21">
+        <f>IF(G16&gt;0,(J16/1000)*G16*H16,0)</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L16" s="21">
+        <f>K16</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="15">
+        <v>1</v>
+      </c>
+      <c r="H17" s="15">
+        <v>1</v>
+      </c>
+      <c r="I17" s="15">
+        <f t="shared" ref="I17:I20" si="3">G17*H17</f>
+        <v>1</v>
+      </c>
+      <c r="J17" s="21">
+        <v>25</v>
+      </c>
+      <c r="K17" s="12">
+        <f t="shared" ref="K17:K20" si="4">IF(G17&gt;0,(J17/1000)*G17*H17,0)</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L17" s="12">
+        <f t="shared" ref="L17:L20" si="5">K17</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="15">
+        <v>1</v>
+      </c>
+      <c r="H18" s="15">
         <v>4</v>
       </c>
-      <c r="K16" s="24">
-        <f t="shared" ref="K16" si="4">IF(G16&gt;0,J16/H16*G16,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="24">
-        <f t="shared" ref="L16" si="5">I16*J16</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17">
-        <v>0</v>
-      </c>
-      <c r="H17" s="17">
-        <v>5</v>
-      </c>
-      <c r="I17" s="23">
+      <c r="I18" s="15">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J18" s="21">
+        <v>25</v>
+      </c>
+      <c r="K18" s="12">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="L18" s="12">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J17" s="24">
-        <v>25</v>
-      </c>
-      <c r="K17" s="24">
-        <f t="shared" ref="K17" si="6">IF(G17&gt;0,J17/H17*G17,0)</f>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L17" s="24">
-        <f t="shared" ref="L17" si="7">I17*J17</f>
+      <c r="L19" s="12">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-    </row>
-    <row r="18" spans="1:14" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-    </row>
-    <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="36"/>
-      <c r="B19" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="13">
-        <f>SUM(I21:I27)</f>
-        <v>6</v>
-      </c>
-      <c r="J19" s="38"/>
-      <c r="K19" s="12">
-        <f>SUM(K21:K27)</f>
-        <v>0.15000000000000002</v>
-      </c>
-      <c r="L19" s="12">
-        <f>SUM(L21:L27)</f>
-        <v>0.15000000000000002</v>
-      </c>
-      <c r="M19" s="37"/>
-      <c r="N19" s="39"/>
-    </row>
-    <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="40"/>
-      <c r="B20" s="13" t="s">
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+    </row>
+    <row r="22" spans="1:14" s="60" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="58"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+    </row>
+    <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="33"/>
+      <c r="B23" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="36"/>
+    </row>
+    <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="37"/>
+      <c r="B24" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="23"/>
+      <c r="E24" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="55" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+    </row>
+    <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="38"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
+    </row>
+    <row r="31" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="39"/>
+      <c r="B31" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="40"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="57"/>
+    </row>
+    <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="41"/>
+      <c r="B32" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C32" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="13" t="s">
+      <c r="D32" s="13"/>
+      <c r="E32" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J20" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" s="13" t="s">
+      <c r="H32" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="L20" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13" t="s">
+      <c r="L32" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33" s="24">
         <v>1</v>
       </c>
-      <c r="H21" s="25">
+      <c r="H33" s="24">
         <v>1</v>
       </c>
-      <c r="I21" s="25">
-        <f>G21*H21</f>
+      <c r="I33" s="24">
         <v>1</v>
       </c>
-      <c r="J21" s="26">
-        <v>25</v>
-      </c>
-      <c r="K21" s="26">
-        <f>IF(G21&gt;0,(J21/1000)*G21*H21,0)</f>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="L21" s="26">
-        <f>K21</f>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="18">
+      <c r="J33" s="63">
+        <v>0.83</v>
+      </c>
+      <c r="K33" s="63">
+        <f>IF(G33&gt;0,J33/H33*G33,0)</f>
+        <v>0.83</v>
+      </c>
+      <c r="L33" s="63">
+        <f>J33*I33</f>
+        <v>0.83</v>
+      </c>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="G34" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="H34" s="17">
         <v>1</v>
       </c>
-      <c r="H22" s="18">
+      <c r="I34" s="17">
         <v>1</v>
       </c>
-      <c r="I22" s="18">
-        <f t="shared" ref="I22:I25" si="8">G22*H22</f>
+      <c r="J34" s="64">
+        <v>1.77</v>
+      </c>
+      <c r="K34" s="63">
+        <f>IF(G34&gt;0,J34/H34*G34,0)</f>
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="L34" s="63">
+        <f>J34*I34</f>
+        <v>1.77</v>
+      </c>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="17"/>
+      <c r="B35" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G35" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="H35" s="17">
         <v>1</v>
       </c>
-      <c r="J22" s="26">
-        <v>25</v>
-      </c>
-      <c r="K22" s="14">
-        <f t="shared" ref="K22:K25" si="9">IF(G22&gt;0,(J22/1000)*G22*H22,0)</f>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="L22" s="14">
-        <f t="shared" ref="L22:L25" si="10">K22</f>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="18">
+      <c r="I35" s="17">
         <v>1</v>
       </c>
-      <c r="H23" s="18">
-        <v>4</v>
-      </c>
-      <c r="I23" s="18">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="J23" s="26">
-        <v>25</v>
-      </c>
-      <c r="K23" s="14">
-        <f t="shared" si="9"/>
-        <v>0.1</v>
-      </c>
-      <c r="L23" s="14">
-        <f t="shared" si="10"/>
-        <v>0.1</v>
-      </c>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L24" s="14">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="14">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
-    </row>
-    <row r="27" spans="1:14" s="71" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="69"/>
-      <c r="B27" s="69"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="70"/>
-      <c r="M27" s="69"/>
-      <c r="N27" s="69"/>
-    </row>
-    <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="43"/>
-      <c r="B28" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="44"/>
-      <c r="N28" s="46"/>
-    </row>
-    <row r="29" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="47"/>
-      <c r="B29" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="66" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="66" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-    </row>
-    <row r="35" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="48"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="48"/>
-      <c r="N35" s="48"/>
-    </row>
-    <row r="36" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="49"/>
-      <c r="B36" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="50"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="67"/>
-      <c r="H36" s="67"/>
-      <c r="I36" s="67"/>
-      <c r="J36" s="67"/>
-      <c r="K36" s="67"/>
-      <c r="L36" s="67"/>
-      <c r="M36" s="67"/>
-      <c r="N36" s="68"/>
-    </row>
-    <row r="37" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="51"/>
-      <c r="B37" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H37" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="I37" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J37" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="K37" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="L37" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="20"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="20"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="20"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="20"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="20"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="20"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="20"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="20"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="20"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="20"/>
-      <c r="N45" s="20"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="20"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="20"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="20"/>
-      <c r="N46" s="20"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="20"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="20"/>
-      <c r="N47" s="20"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="20"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="20"/>
-      <c r="N48" s="20"/>
+      <c r="J35" s="64">
+        <v>1.99</v>
+      </c>
+      <c r="K35" s="63">
+        <f>IF(G35&gt;0,J35/H35*G35,0)</f>
+        <v>0.995</v>
+      </c>
+      <c r="L35" s="63">
+        <f>J35*I35</f>
+        <v>1.99</v>
+      </c>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
